--- a/pjets/expdata/20004.xlsx
+++ b/pjets/expdata/20004.xlsx
@@ -1,39 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yiyu/Google Drive/ing/jefferson lab/scholarship/monte carlo/code/fitpack/database/pjet/expdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165971FD-7C8A-224E-A9E8-0B72623E0BEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="27200" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>idx</t>
+  </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>particles-in</t>
   </si>
   <si>
     <t>RS</t>
   </si>
   <si>
+    <t>pt-min</t>
+  </si>
+  <si>
+    <t>pt-max</t>
+  </si>
+  <si>
     <t>pT</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>eta-abs-min</t>
+  </si>
+  <si>
+    <t>eta-abs-max</t>
+  </si>
+  <si>
+    <t>cone-radius</t>
   </si>
   <si>
     <t>obs</t>
@@ -42,19 +55,16 @@
     <t>value</t>
   </si>
   <si>
-    <t>eta_abs_min</t>
+    <t>stat_u</t>
   </si>
   <si>
-    <t>eta_abs_max</t>
+    <t>sys_u</t>
   </si>
   <si>
-    <t>tau</t>
+    <t>shift_c</t>
   </si>
   <si>
-    <t>idx</t>
-  </si>
-  <si>
-    <t>stat_u</t>
+    <t>%-norm_c</t>
   </si>
   <si>
     <t>star</t>
@@ -65,64 +75,383 @@
   <si>
     <t>&lt;a_ll&gt;</t>
   </si>
-  <si>
-    <t>cone_radius</t>
-  </si>
-  <si>
-    <t>shift_c</t>
-  </si>
-  <si>
-    <t>%_norm_c</t>
-  </si>
-  <si>
-    <t>particles_in</t>
-  </si>
-  <si>
-    <t>pt_min</t>
-  </si>
-  <si>
-    <t>pt_max</t>
-  </si>
-  <si>
-    <t>sys_u</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Gabriola"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,9 +459,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -143,17 +714,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -202,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -235,26 +850,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -287,23 +885,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,94 +1026,88 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.71120689655172" defaultRowHeight="24.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.2844827586207" customWidth="1"/>
+    <col min="3" max="3" width="13.8534482758621" customWidth="1"/>
+    <col min="4" max="8" width="10.2844827586207" customWidth="1"/>
+    <col min="9" max="9" width="14.8534482758621" customWidth="1"/>
+    <col min="10" max="11" width="15.5689655172414" customWidth="1"/>
+    <col min="12" max="12" width="7.85344827586207" customWidth="1"/>
+    <col min="13" max="14" width="17" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="1027" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.8534482758621" customWidth="1"/>
+    <col min="18" max="20" width="10.2844827586207" customWidth="1"/>
+    <col min="21" max="21" width="11.8534482758621" customWidth="1"/>
+    <col min="22" max="22" width="14.1422413793103" customWidth="1"/>
+    <col min="23" max="1027" width="10.2844827586207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" ht="35.6" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -540,15 +1115,15 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" ht="35.6" spans="1:22">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
@@ -564,7 +1139,7 @@
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H23" si="0">2*G2/D2</f>
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -576,19 +1151,19 @@
         <v>0.6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="N2" s="1">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="O2" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>0.0003</v>
       </c>
       <c r="P2" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q2" s="1">
         <v>6.5</v>
@@ -599,15 +1174,15 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" ht="35.6" spans="1:22">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -623,7 +1198,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>6.4899999999999999E-2</v>
+        <v>0.0649</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -635,19 +1210,19 @@
         <v>0.6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M3" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>0.0056</v>
       </c>
       <c r="N3" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="O3" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P3" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q3" s="1">
         <v>6.5</v>
@@ -658,15 +1233,15 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" ht="35.6" spans="1:22">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -675,14 +1250,14 @@
         <v>7.55</v>
       </c>
       <c r="F4" s="1">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="G4" s="1">
         <v>8.25</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -694,19 +1269,19 @@
         <v>0.6</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>0.0013</v>
       </c>
       <c r="N4" s="1">
-        <v>1.4E-3</v>
+        <v>0.0014</v>
       </c>
       <c r="O4" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P4" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q4" s="1">
         <v>6.5</v>
@@ -717,15 +1292,15 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" ht="35.6" spans="1:22">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -753,19 +1328,19 @@
         <v>0.6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M5" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="N5" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="O5" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P5" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q5" s="1">
         <v>6.5</v>
@@ -776,15 +1351,15 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" ht="35.6" spans="1:22">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -812,19 +1387,19 @@
         <v>0.6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M6" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>0.0054</v>
       </c>
       <c r="N6" s="1">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="O6" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="P6" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q6" s="1">
         <v>6.5</v>
@@ -835,15 +1410,15 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" ht="35.6" spans="1:22">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -852,14 +1427,14 @@
         <v>14.07</v>
       </c>
       <c r="F7" s="1">
-        <v>15.489999999999998</v>
+        <v>15.49</v>
       </c>
       <c r="G7" s="1">
         <v>14.78</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.14779999999999999</v>
+        <v>0.1478</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -871,19 +1446,19 @@
         <v>0.6</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M7" s="1">
-        <v>1.14E-2</v>
+        <v>0.0114</v>
       </c>
       <c r="N7" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>0.0026</v>
       </c>
       <c r="O7" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0006</v>
       </c>
       <c r="P7" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q7" s="1">
         <v>6.5</v>
@@ -894,15 +1469,15 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" ht="35.6" spans="1:22">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
@@ -918,7 +1493,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.17230000000000001</v>
+        <v>0.1723</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -930,19 +1505,19 @@
         <v>0.6</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M8" s="1">
-        <v>1.15E-2</v>
+        <v>0.0115</v>
       </c>
       <c r="N8" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>0.0037</v>
       </c>
       <c r="O8" s="1">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="P8" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q8" s="1">
         <v>6.5</v>
@@ -953,15 +1528,15 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" ht="35.6" spans="1:22">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>200</v>
@@ -970,14 +1545,14 @@
         <v>19.68</v>
       </c>
       <c r="F9" s="1">
-        <v>21.439999999999998</v>
+        <v>21.44</v>
       </c>
       <c r="G9" s="1">
         <v>20.56</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.20559999999999998</v>
+        <v>0.2056</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -989,19 +1564,19 @@
         <v>0.6</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M9" s="1">
-        <v>1.32E-2</v>
+        <v>0.0132</v>
       </c>
       <c r="N9" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>0.0055</v>
       </c>
       <c r="O9" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="P9" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q9" s="1">
         <v>6.5</v>
@@ -1012,21 +1587,21 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" ht="35.6" spans="1:22">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
       </c>
       <c r="E10" s="1">
-        <v>22.669999999999998</v>
+        <v>22.67</v>
       </c>
       <c r="F10" s="1">
         <v>24.55</v>
@@ -1048,19 +1623,19 @@
         <v>0.6</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M10" s="1">
-        <v>2.07E-2</v>
+        <v>0.0207</v>
       </c>
       <c r="N10" s="1">
-        <v>9.1999999999999998E-3</v>
+        <v>0.0092</v>
       </c>
       <c r="O10" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>0.0022</v>
       </c>
       <c r="P10" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q10" s="1">
         <v>6.5</v>
@@ -1071,15 +1646,15 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" ht="35.6" spans="1:22">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>200</v>
@@ -1095,7 +1670,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.27779999999999999</v>
+        <v>0.2778</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1107,19 +1682,19 @@
         <v>0.6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M11" s="1">
-        <v>3.2599999999999997E-2</v>
+        <v>0.0326</v>
       </c>
       <c r="N11" s="1">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="O11" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>0.0039</v>
       </c>
       <c r="P11" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q11" s="1">
         <v>6.5</v>
@@ -1130,15 +1705,15 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" ht="35.6" spans="1:22">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>200</v>
@@ -1166,19 +1741,19 @@
         <v>0.6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M12" s="1">
-        <v>3.32E-2</v>
+        <v>0.0332</v>
       </c>
       <c r="N12" s="1">
-        <v>2.9700000000000001E-2</v>
+        <v>0.0297</v>
       </c>
       <c r="O12" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0048</v>
       </c>
       <c r="P12" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q12" s="1">
         <v>6.5</v>
@@ -1189,21 +1764,21 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" ht="35.6" spans="1:22">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>200</v>
       </c>
       <c r="E13" s="1">
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="F13" s="1">
         <v>6.42</v>
@@ -1213,7 +1788,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>5.6100000000000004E-2</v>
+        <v>0.0561</v>
       </c>
       <c r="I13" s="1">
         <v>0.5</v>
@@ -1225,19 +1800,19 @@
         <v>0.6</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M13" s="1">
-        <v>1.8E-3</v>
+        <v>0.0018</v>
       </c>
       <c r="N13" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="O13" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P13" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q13" s="1">
         <v>6.5</v>
@@ -1248,21 +1823,21 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" ht="35.6" spans="1:22">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>200</v>
       </c>
       <c r="E14" s="1">
-        <v>5.8100000000000005</v>
+        <v>5.81</v>
       </c>
       <c r="F14" s="1">
         <v>7.43</v>
@@ -1272,7 +1847,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>6.6199999999999995E-2</v>
+        <v>0.0662</v>
       </c>
       <c r="I14" s="1">
         <v>0.5</v>
@@ -1284,19 +1859,19 @@
         <v>0.6</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M14" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="N14" s="1">
-        <v>1.8E-3</v>
+        <v>0.0018</v>
       </c>
       <c r="O14" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P14" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q14" s="1">
         <v>6.5</v>
@@ -1307,21 +1882,21 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" ht="35.6" spans="1:17">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
       </c>
       <c r="E15" s="1">
-        <v>7.7900000000000009</v>
+        <v>7.79</v>
       </c>
       <c r="F15" s="1">
         <v>9.17</v>
@@ -1331,7 +1906,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>8.48E-2</v>
+        <v>0.0848</v>
       </c>
       <c r="I15" s="1">
         <v>0.5</v>
@@ -1343,33 +1918,33 @@
         <v>0.6</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M15" s="1">
-        <v>5.8999999999999999E-3</v>
+        <v>0.0059</v>
       </c>
       <c r="N15" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>0.0016</v>
       </c>
       <c r="O15" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P15" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q15" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" ht="35.6" spans="1:17">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>200</v>
@@ -1397,39 +1972,39 @@
         <v>0.6</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M16" s="1">
-        <v>2.7000000000000001E-3</v>
+        <v>0.0027</v>
       </c>
       <c r="N16" s="1">
-        <v>1.9E-3</v>
+        <v>0.0019</v>
       </c>
       <c r="O16" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="P16" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q16" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" ht="35.6" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
         <v>200</v>
       </c>
       <c r="E17" s="1">
-        <v>11.559999999999999</v>
+        <v>11.56</v>
       </c>
       <c r="F17" s="1">
         <v>12.84</v>
@@ -1451,33 +2026,33 @@
         <v>0.6</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M17" s="1">
-        <v>6.8999999999999999E-3</v>
+        <v>0.0069</v>
       </c>
       <c r="N17" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
       <c r="O17" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="P17" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q17" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" ht="35.6" spans="1:17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>200</v>
@@ -1505,45 +2080,45 @@
         <v>0.6</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M18" s="1">
-        <v>8.6999999999999994E-3</v>
+        <v>0.0087</v>
       </c>
       <c r="N18" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>0.0032</v>
       </c>
       <c r="O18" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>0.0006</v>
       </c>
       <c r="P18" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q18" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" ht="35.6" spans="1:17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>200</v>
       </c>
       <c r="E19" s="1">
-        <v>16.299999999999997</v>
+        <v>16.3</v>
       </c>
       <c r="F19" s="1">
         <v>17.68</v>
       </c>
       <c r="G19" s="1">
-        <v>16.989999999999998</v>
+        <v>16.99</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
@@ -1559,39 +2134,39 @@
         <v>0.6</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M19" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="N19" s="1">
-        <v>4.5999999999999999E-3</v>
+        <v>0.0046</v>
       </c>
       <c r="O19" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>0.0011</v>
       </c>
       <c r="P19" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q19" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" ht="35.6" spans="1:17">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>200</v>
       </c>
       <c r="E20" s="1">
-        <v>19.260000000000002</v>
+        <v>19.26</v>
       </c>
       <c r="F20" s="1">
         <v>21.06</v>
@@ -1613,33 +2188,33 @@
         <v>0.6</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M20" s="1">
-        <v>1.95E-2</v>
+        <v>0.0195</v>
       </c>
       <c r="N20" s="1">
-        <v>7.1000000000000004E-3</v>
+        <v>0.0071</v>
       </c>
       <c r="O20" s="1">
-        <v>1.5E-3</v>
+        <v>0.0015</v>
       </c>
       <c r="P20" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q20" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" ht="35.6" spans="1:17">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <v>200</v>
@@ -1655,7 +2230,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0.23350000000000001</v>
+        <v>0.2335</v>
       </c>
       <c r="I21" s="1">
         <v>0.5</v>
@@ -1667,33 +2242,33 @@
         <v>0.6</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M21" s="1">
-        <v>3.3300000000000003E-2</v>
+        <v>0.0333</v>
       </c>
       <c r="N21" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>0.0122</v>
       </c>
       <c r="O21" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="P21" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q21" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" ht="35.6" spans="1:17">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <v>200</v>
@@ -1709,7 +2284,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0.27129999999999999</v>
+        <v>0.2713</v>
       </c>
       <c r="I22" s="1">
         <v>0.5</v>
@@ -1721,33 +2296,33 @@
         <v>0.6</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M22" s="1">
-        <v>4.3700000000000003E-2</v>
+        <v>0.0437</v>
       </c>
       <c r="N22" s="1">
-        <v>2.2100000000000002E-2</v>
+        <v>0.0221</v>
       </c>
       <c r="O22" s="1">
-        <v>3.8E-3</v>
+        <v>0.0038</v>
       </c>
       <c r="P22" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q22" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" ht="35.6" spans="1:17">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>200</v>
@@ -1756,14 +2331,14 @@
         <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>32.159999999999997</v>
+        <v>32.16</v>
       </c>
       <c r="G23" s="1">
         <v>31.08</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0.31079999999999997</v>
+        <v>0.3108</v>
       </c>
       <c r="I23" s="1">
         <v>0.5</v>
@@ -1775,25 +2350,25 @@
         <v>0.6</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M23" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>0.0055</v>
       </c>
       <c r="N23" s="1">
-        <v>4.3400000000000001E-2</v>
+        <v>0.0434</v>
       </c>
       <c r="O23" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="P23" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="Q23" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" ht="35.6" spans="2:16">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1807,7 +2382,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" ht="35.6" spans="2:16">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1821,7 +2396,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" ht="35.6" spans="2:16">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1835,7 +2410,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" ht="35.6" spans="2:16">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1849,7 +2424,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" ht="35.6" spans="2:16">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1863,7 +2438,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" ht="35.6" spans="2:16">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1877,7 +2452,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" ht="35.6" spans="2:16">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1891,7 +2466,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" ht="35.6" spans="2:16">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1905,7 +2480,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" ht="35.6" spans="2:16">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1919,7 +2494,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" ht="35.6" spans="2:16">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1933,7 +2508,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" ht="35.6" spans="2:16">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1947,7 +2522,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="2:16" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" ht="35.6" spans="2:16">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1962,7 +2537,8 @@
       <c r="P35" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>